--- a/作業日報/H27 PM演習作業報告書 5月21日 No.21.xlsx
+++ b/作業日報/H27 PM演習作業報告書 5月21日 No.21.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>作業報告書</t>
     <rPh sb="0" eb="2">
@@ -153,10 +153,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>16:30～18:30</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>堀内研究室</t>
     <rPh sb="0" eb="5">
       <t>ホリウチケンキュウシツ</t>
@@ -168,42 +164,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5時間</t>
-    <rPh sb="1" eb="3">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>16:30～18:30</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロジェクト計画書作成・システム画面設計書作成・論理データ設計書作成</t>
-    <rPh sb="6" eb="9">
-      <t>ケイカクショ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="23">
-      <t>セッケイショサクセイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ロンリ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プロジェクト計画書作成</t>
     <rPh sb="6" eb="9">
       <t>ケイカクショ</t>
@@ -214,30 +174,93 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>システム画面設計書</t>
-    <rPh sb="4" eb="6">
+    <t>16:30～17:30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト計画書作成・システム概要設計書作成・システム機能設計書作成・システム画面設計書作成・論理データ設計書作成</t>
+    <rPh sb="6" eb="9">
+      <t>ケイカクショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="21">
+      <t>ガイヨウセッケイショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="28" eb="33">
+      <t>キノウセッケイショ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="6" eb="9">
+    <rPh sb="42" eb="47">
+      <t>セッケイショサクセイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="53" eb="56">
       <t>セッケイショ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>論理データ設計書作成</t>
-    <rPh sb="0" eb="2">
+    <rPh sb="56" eb="58">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム概要設計書作成・システム画面設計書作成</t>
+    <rPh sb="4" eb="9">
+      <t>ガイヨウセッケイショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム機能設計書作成・論理データ設計書作成</t>
+    <rPh sb="4" eb="9">
+      <t>キノウセッケイショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
       <t>ロンリ</t>
     </rPh>
-    <rPh sb="5" eb="8">
+    <rPh sb="17" eb="20">
       <t>セッケイショ</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="20" eb="22">
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>16:30～17:30</t>
+    <t>16:30～19:30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -639,161 +662,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1098,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:E20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1109,457 +1132,436 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="A3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
     </row>
     <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="33">
         <v>42145</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
+      <c r="B7" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="39"/>
     </row>
     <row r="8" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="12" t="str">
+      <c r="B10" s="10" t="str">
         <f>B5</f>
         <v>堀内研究室</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="24" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26" t="s">
+      <c r="E14" s="20"/>
+      <c r="F14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="str">
+      <c r="A15" s="7" t="str">
         <f>A10</f>
         <v>佐藤　優至</v>
       </c>
-      <c r="B15" s="12" t="str">
+      <c r="B15" s="10" t="str">
         <f>B$10</f>
         <v>堀内研究室</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="13"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="15"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="17"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="str">
+      <c r="A18" s="7" t="str">
         <f>A11</f>
         <v>加藤　聖也</v>
       </c>
-      <c r="B18" s="12" t="str">
+      <c r="B18" s="10" t="str">
         <f t="shared" ref="B18" si="0">B$10</f>
         <v>堀内研究室</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="12" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="13"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="15"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="17"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="13"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="15"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="17"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="32"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="15"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="32"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="15"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="33"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="17"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="31"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="35"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="32"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="37"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="49"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="33"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="39"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:C23"/>
-    <mergeCell ref="D21:E23"/>
-    <mergeCell ref="F21:J23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F10:J12"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:C29"/>
-    <mergeCell ref="D27:E29"/>
-    <mergeCell ref="F27:J29"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="D24:E26"/>
-    <mergeCell ref="F24:J26"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A18:A20"/>
@@ -1576,6 +1578,27 @@
     <mergeCell ref="F9:J9"/>
     <mergeCell ref="B10:C12"/>
     <mergeCell ref="D10:E12"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:C29"/>
+    <mergeCell ref="D27:E29"/>
+    <mergeCell ref="F27:J29"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="D24:E26"/>
+    <mergeCell ref="F24:J26"/>
+    <mergeCell ref="F10:J12"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:C23"/>
+    <mergeCell ref="D21:E23"/>
+    <mergeCell ref="F21:J23"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
